--- a/Mifos Automation Excels/Loan Product/679-MS-EPP-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-EarlyRePayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/679-MS-EPP-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-EarlyRePayment-Loanproduct.xlsx
@@ -7,15 +7,15 @@
     <workbookView xWindow="180" yWindow="2955" windowWidth="19050" windowHeight="5580" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ProductLoan_Input" sheetId="6" r:id="rId1"/>
-    <sheet name="ProductLoan_Output" sheetId="7" r:id="rId2"/>
+    <sheet name="ProductLoanInput" sheetId="6" r:id="rId1"/>
+    <sheet name="ProductLoanOutput" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
   <si>
     <t>productname</t>
   </si>
@@ -119,9 +119,6 @@
     <t>nominalinterestratedefault</t>
   </si>
   <si>
-    <t>maximumallowedaoutstandingbalance</t>
-  </si>
-  <si>
     <t>preclosureinterestcalculationrule</t>
   </si>
   <si>
@@ -213,6 +210,15 @@
   </si>
   <si>
     <t>Same as repayment period</t>
+  </si>
+  <si>
+    <t>accrualperiodic</t>
+  </si>
+  <si>
+    <t>verifyloanproduct</t>
+  </si>
+  <si>
+    <t>maximumallowedoutstandingbalancefortranchloan</t>
   </si>
 </sst>
 </file>
@@ -270,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -290,6 +296,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -611,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -721,7 +728,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -737,7 +744,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -745,7 +752,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -774,10 +781,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -801,23 +808,23 @@
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="5">
+        <v>30</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="5">
         <v>10000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -829,99 +836,107 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>36</v>
+      <c r="A29" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -935,7 +950,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -946,10 +961,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Loan Product/679-MS-EPP-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-EarlyRePayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/679-MS-EPP-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-EarlyRePayment-Loanproduct.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="2955" windowWidth="19050" windowHeight="5580" activeTab="1"/>
+    <workbookView xWindow="180" yWindow="2955" windowWidth="19050" windowHeight="5580"/>
   </bookViews>
   <sheets>
     <sheet name="ProductLoanInput" sheetId="6" r:id="rId1"/>
@@ -603,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -663,7 +663,7 @@
       <c r="A7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -949,7 +949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/Mifos Automation Excels/Loan Product/679-MS-EPP-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-EarlyRePayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/679-MS-EPP-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-EarlyRePayment-Loanproduct.xlsx
@@ -194,9 +194,6 @@
     <t>overpaymentliability</t>
   </si>
   <si>
-    <t>Mifos style</t>
-  </si>
-  <si>
     <t>Daily</t>
   </si>
   <si>
@@ -219,6 +216,9 @@
   </si>
   <si>
     <t>maximumallowedoutstandingbalancefortranchloan</t>
+  </si>
+  <si>
+    <t>Penalties, Fees, Interest, Principal order</t>
   </si>
 </sst>
 </file>
@@ -276,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -297,6 +297,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,7 +607,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -618,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -728,7 +731,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -743,8 +746,8 @@
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>59</v>
+      <c r="B17" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -752,7 +755,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -784,7 +787,7 @@
         <v>34</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -808,7 +811,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -821,7 +824,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B27" s="5">
         <v>10000</v>
@@ -837,7 +840,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>8</v>
@@ -961,10 +964,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
